--- a/data/trans_orig/Q4504_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q4504_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>82982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66677</v>
+        <v>66275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102751</v>
+        <v>100280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1420584626436653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1141451745507835</v>
+        <v>0.1134574449959898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1759005750724057</v>
+        <v>0.1716707627757494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -764,19 +764,19 @@
         <v>135117</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116395</v>
+        <v>112598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>159421</v>
+        <v>156958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1464950308732905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1261963770937688</v>
+        <v>0.1220795504588251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1728454437734151</v>
+        <v>0.1701754076233684</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -785,19 +785,19 @@
         <v>218099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191015</v>
+        <v>192095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>247862</v>
+        <v>247512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1447747341546871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1267959238749639</v>
+        <v>0.127512806599557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1645309666231025</v>
+        <v>0.1642987489147753</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>68264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53898</v>
+        <v>54473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84408</v>
+        <v>84650</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1168619213024713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09226929317117982</v>
+        <v>0.09325371915460613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1444991742795508</v>
+        <v>0.1449144699328953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -835,19 +835,19 @@
         <v>104544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86343</v>
+        <v>85179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123141</v>
+        <v>124860</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1133471041781599</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09361403515452769</v>
+        <v>0.09235163831576589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1335100415307993</v>
+        <v>0.1353742739721475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>172</v>
@@ -856,19 +856,19 @@
         <v>172808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149258</v>
+        <v>148914</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>197955</v>
+        <v>197903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1147099882931991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09907751999678566</v>
+        <v>0.09884963601407905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1314029724163494</v>
+        <v>0.131368561909151</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>183060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160400</v>
+        <v>161894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>205171</v>
+        <v>207129</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3133836062206524</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2745910134365992</v>
+        <v>0.2771480454241598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3512354320458709</v>
+        <v>0.3545869652252536</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>238</v>
@@ -906,19 +906,19 @@
         <v>245468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>218033</v>
+        <v>218143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>273501</v>
+        <v>272160</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.266137677125499</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2363927436701785</v>
+        <v>0.2365123787934095</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.296532131522246</v>
+        <v>0.2950777440164248</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>414</v>
@@ -927,19 +927,19 @@
         <v>428528</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>395431</v>
+        <v>395051</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>467696</v>
+        <v>466221</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2844574712959196</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2624880661528054</v>
+        <v>0.2622355582566421</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3104571281978477</v>
+        <v>0.3094782658040506</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>46732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35263</v>
+        <v>35154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60228</v>
+        <v>60650</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08000150267189804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0603668461337505</v>
+        <v>0.06018103245946225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1031055342913574</v>
+        <v>0.1038284798801104</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -977,19 +977,19 @@
         <v>75794</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60241</v>
+        <v>60123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93067</v>
+        <v>93972</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08217601382224952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0653135056189286</v>
+        <v>0.06518592003203295</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1009040379206484</v>
+        <v>0.1018850861352662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -998,19 +998,19 @@
         <v>122526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100904</v>
+        <v>103949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144765</v>
+        <v>146791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08133283860147034</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06697994812505588</v>
+        <v>0.06900123208829259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09609537799547586</v>
+        <v>0.09744013360920331</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>203103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181920</v>
+        <v>181414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>228792</v>
+        <v>226589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.347694507161313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3114312336693305</v>
+        <v>0.3105654735954441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3916727668142428</v>
+        <v>0.3879007398874653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -1048,19 +1048,19 @@
         <v>361411</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330720</v>
+        <v>330664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389302</v>
+        <v>392488</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3918441740008011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.358569212446757</v>
+        <v>0.3585082046303643</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4220838974710589</v>
+        <v>0.4255380622966153</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>548</v>
@@ -1069,19 +1069,19 @@
         <v>564513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>527804</v>
+        <v>525914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>602519</v>
+        <v>601707</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3747249676547238</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3503570136954845</v>
+        <v>0.3491022899908309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.399952804860555</v>
+        <v>0.3994143641077968</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>158887</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132789</v>
+        <v>135321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183788</v>
+        <v>184836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1475439758701185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1233097351238019</v>
+        <v>0.1256607717057513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1706674665534267</v>
+        <v>0.1716409092444472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>188</v>
@@ -1194,19 +1194,19 @@
         <v>198550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175546</v>
+        <v>171458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226123</v>
+        <v>223117</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.187933160015337</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.166158971306847</v>
+        <v>0.1622890723679959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2140315813133886</v>
+        <v>0.2111863833679673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>336</v>
@@ -1215,19 +1215,19 @@
         <v>357437</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>322587</v>
+        <v>322129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>391930</v>
+        <v>395147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1675456434857779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1512099503429168</v>
+        <v>0.150995463932524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1837141212455116</v>
+        <v>0.185221971006087</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>227832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>199958</v>
+        <v>202443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255771</v>
+        <v>255424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2115677280147264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1856836230875833</v>
+        <v>0.1879914176518978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2375120663957136</v>
+        <v>0.2371896680605178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>194</v>
@@ -1265,19 +1265,19 @@
         <v>200408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>175983</v>
+        <v>174530</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>224538</v>
+        <v>226244</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1896914645139399</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1665727049571142</v>
+        <v>0.1651970342399655</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2125306408373022</v>
+        <v>0.2141454218332419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>421</v>
@@ -1286,19 +1286,19 @@
         <v>428240</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>390486</v>
+        <v>386107</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>467261</v>
+        <v>465253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2007340912261726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1830372361235031</v>
+        <v>0.180984571181052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2190246822542844</v>
+        <v>0.218083588981836</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>330340</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>300424</v>
+        <v>300228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>360365</v>
+        <v>359083</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3067575162253804</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2789771077651971</v>
+        <v>0.2787950137035331</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3346394871984138</v>
+        <v>0.3334487709033138</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>266</v>
@@ -1336,19 +1336,19 @@
         <v>271924</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>242986</v>
+        <v>245038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>300090</v>
+        <v>301668</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.257383236402269</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2299922711147823</v>
+        <v>0.2319346508133394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2840434640075734</v>
+        <v>0.2855370528847595</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>588</v>
@@ -1357,19 +1357,19 @@
         <v>602264</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>560948</v>
+        <v>558272</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>644419</v>
+        <v>645816</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2823062193080262</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2629398194954451</v>
+        <v>0.2616856010908208</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3020658402436099</v>
+        <v>0.3027207355603013</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>99209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80491</v>
+        <v>81664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121197</v>
+        <v>121809</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09212692356289669</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07474522940345778</v>
+        <v>0.0758339009954648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1125452094973284</v>
+        <v>0.1131134256422135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1407,19 +1407,19 @@
         <v>95938</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78862</v>
+        <v>78366</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114501</v>
+        <v>115279</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09080809864021007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07464448311659196</v>
+        <v>0.07417559446876967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1083778178857452</v>
+        <v>0.1091142252333246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1428,19 +1428,19 @@
         <v>195148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167859</v>
+        <v>171456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221248</v>
+        <v>223446</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09147381064900417</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07868241178156814</v>
+        <v>0.08036850934195124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1037079909120743</v>
+        <v>0.1047386652790722</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>260608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233897</v>
+        <v>233267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288321</v>
+        <v>286252</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.242003856326878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2171996049312811</v>
+        <v>0.2166148618015711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2677386791303354</v>
+        <v>0.2658172685027257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>284</v>
@@ -1478,19 +1478,19 @@
         <v>289674</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>261074</v>
+        <v>260923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>318265</v>
+        <v>317688</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2741840404282441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.247113051889678</v>
+        <v>0.2469700432243552</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3012462826185196</v>
+        <v>0.3006998328527725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>545</v>
@@ -1499,19 +1499,19 @@
         <v>550282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>512392</v>
+        <v>509254</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>591225</v>
+        <v>591439</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2579402353310191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2401796534989449</v>
+        <v>0.238708401996416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.277131967669334</v>
+        <v>0.2772322986103868</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>173501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>151233</v>
+        <v>150366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199059</v>
+        <v>198844</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1549580645783277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1350706604788383</v>
+        <v>0.1342962700523445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1777848127644741</v>
+        <v>0.1775925884131853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -1624,19 +1624,19 @@
         <v>155865</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134597</v>
+        <v>135976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180832</v>
+        <v>181461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1571453178365471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1357027269748441</v>
+        <v>0.1370930915706952</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1823170785182231</v>
+        <v>0.182951755219885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>317</v>
@@ -1645,19 +1645,19 @@
         <v>329366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298164</v>
+        <v>298964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>366227</v>
+        <v>364525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1559854954756552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1412084970369597</v>
+        <v>0.1415872561551871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1734427121869819</v>
+        <v>0.1726368480658901</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>253671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>228177</v>
+        <v>228365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>280559</v>
+        <v>285001</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2265607709080286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2037909795240655</v>
+        <v>0.2039590285760953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2505748743872115</v>
+        <v>0.2545415891450287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -1695,19 +1695,19 @@
         <v>204693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179983</v>
+        <v>180540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228424</v>
+        <v>230344</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.206373690166372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1814610746154095</v>
+        <v>0.1820226223722968</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2303004887360722</v>
+        <v>0.2322358381472814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>450</v>
@@ -1716,19 +1716,19 @@
         <v>458364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419689</v>
+        <v>423023</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>492962</v>
+        <v>498095</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2170781788017497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1987619248970394</v>
+        <v>0.200340703496911</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2334637037808489</v>
+        <v>0.2358946027138604</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>324605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>295171</v>
+        <v>294643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>352999</v>
+        <v>354598</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2899135444189019</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2636246563352947</v>
+        <v>0.2631536199404689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3152728924826632</v>
+        <v>0.3167010011249408</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>283</v>
@@ -1766,19 +1766,19 @@
         <v>281547</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>252387</v>
+        <v>255365</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>310408</v>
+        <v>312370</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2838592818497305</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2544602039074556</v>
+        <v>0.2574620528026659</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3129576379116261</v>
+        <v>0.3149355595996274</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>605</v>
@@ -1787,19 +1787,19 @@
         <v>606152</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>566266</v>
+        <v>567293</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>648077</v>
+        <v>649818</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2870696412720097</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2681798073394549</v>
+        <v>0.2686662585718277</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3069249404682881</v>
+        <v>0.3077494590878401</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>91540</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75188</v>
+        <v>73635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111245</v>
+        <v>110181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08175645285824724</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06715214602141469</v>
+        <v>0.06576549274443187</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09935584100145381</v>
+        <v>0.09840598244424133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -1837,19 +1837,19 @@
         <v>82233</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66242</v>
+        <v>65159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100876</v>
+        <v>100353</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08290833648404199</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06678627877293053</v>
+        <v>0.06569373520467724</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1017049437341942</v>
+        <v>0.1011774880785935</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -1858,19 +1858,19 @@
         <v>173773</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>148520</v>
+        <v>150406</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200146</v>
+        <v>203254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08229753369688349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07033823007723987</v>
+        <v>0.07123105851700125</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09478795176545901</v>
+        <v>0.09625952520070757</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>276345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246332</v>
+        <v>247869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>305023</v>
+        <v>305581</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2468111672364945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2200057586076391</v>
+        <v>0.2213781363194155</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2724242282685689</v>
+        <v>0.2729225005857724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>266</v>
@@ -1908,19 +1908,19 @@
         <v>267516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241742</v>
+        <v>241832</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295446</v>
+        <v>295443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2697133736633084</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2437278518923674</v>
+        <v>0.2438184130825677</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2978724991511533</v>
+        <v>0.297869120065675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>539</v>
@@ -1929,19 +1929,19 @@
         <v>543861</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505751</v>
+        <v>503365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>583569</v>
+        <v>585111</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2575691507537018</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2395202838850184</v>
+        <v>0.2383902085961162</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2763743560502682</v>
+        <v>0.2771044648784053</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>115676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98869</v>
+        <v>98753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137225</v>
+        <v>138424</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.25866667724574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2210849134240627</v>
+        <v>0.2208258773297057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3068530760175792</v>
+        <v>0.3095355865848788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>96</v>
@@ -2054,19 +2054,19 @@
         <v>96011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81612</v>
+        <v>81056</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115581</v>
+        <v>113188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2814268142949015</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2392203696996358</v>
+        <v>0.2375899771296063</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3387897452384921</v>
+        <v>0.3317755978608273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>208</v>
@@ -2075,19 +2075,19 @@
         <v>211687</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>187596</v>
+        <v>186727</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>240435</v>
+        <v>236830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2685160200669295</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2379580735807436</v>
+        <v>0.2368556033388312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3049820277700719</v>
+        <v>0.300408801848432</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>139537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119966</v>
+        <v>120255</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>160232</v>
+        <v>162586</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3120238848637632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2682613099709573</v>
+        <v>0.2689069203258234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3583005721501867</v>
+        <v>0.3635646708147061</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -2125,19 +2125,19 @@
         <v>101756</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>85113</v>
+        <v>85754</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118100</v>
+        <v>118343</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2982650543459794</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2494834531851698</v>
+        <v>0.2513606310989455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3461750591078603</v>
+        <v>0.3468855672714739</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>236</v>
@@ -2146,19 +2146,19 @@
         <v>241293</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>217586</v>
+        <v>214065</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>268131</v>
+        <v>268479</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3060698153300171</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2759993465454705</v>
+        <v>0.271532976317622</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3401129867231877</v>
+        <v>0.3405548696397031</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>94907</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77602</v>
+        <v>77933</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112034</v>
+        <v>112517</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2122243362612427</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.173529374700757</v>
+        <v>0.1742685068467266</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2505226344511594</v>
+        <v>0.2516026192449068</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -2196,19 +2196,19 @@
         <v>58771</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46562</v>
+        <v>45118</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73856</v>
+        <v>73648</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1722678282762773</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1364826421536877</v>
+        <v>0.1322506709154923</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2164853091580614</v>
+        <v>0.2158774617132098</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>150</v>
@@ -2217,19 +2217,19 @@
         <v>153677</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>132705</v>
+        <v>132588</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>177089</v>
+        <v>176819</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1949333443734756</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.168331039822303</v>
+        <v>0.1681827280302178</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2246296294581697</v>
+        <v>0.2242881284317019</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>19857</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12592</v>
+        <v>12007</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31095</v>
+        <v>30622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04440215812282371</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02815846955200921</v>
+        <v>0.02684942603476436</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06953310415892244</v>
+        <v>0.06847422485619686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2267,19 +2267,19 @@
         <v>20301</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12821</v>
+        <v>12956</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30765</v>
+        <v>30727</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05950749362482242</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03757989190734232</v>
+        <v>0.03797795729911756</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09017875744208723</v>
+        <v>0.09006599899438696</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2288,19 +2288,19 @@
         <v>40158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28448</v>
+        <v>29042</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54009</v>
+        <v>53868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05093892138865608</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03608546095420166</v>
+        <v>0.03683859180126278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0685085890951202</v>
+        <v>0.06832883163152617</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>77224</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62674</v>
+        <v>63095</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93776</v>
+        <v>93187</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1726829435064304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1401482704568031</v>
+        <v>0.1410891647656502</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.20969563495949</v>
+        <v>0.2083776934991828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -2338,19 +2338,19 @@
         <v>64319</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51329</v>
+        <v>51727</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>79653</v>
+        <v>80787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1885328094580193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1504549298471201</v>
+        <v>0.1516204971828197</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.233477809544179</v>
+        <v>0.2368023873445672</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>141</v>
@@ -2359,19 +2359,19 @@
         <v>141543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>121602</v>
+        <v>122159</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>164026</v>
+        <v>165466</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1795418988409216</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1542466945268136</v>
+        <v>0.1549543106647921</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.208060194568577</v>
+        <v>0.2098864790840587</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>531045</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>486630</v>
+        <v>486883</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>577515</v>
+        <v>573063</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1645182775058128</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1507584306424443</v>
+        <v>0.1508368852477357</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1789147492524653</v>
+        <v>0.1775354339311232</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>560</v>
@@ -2484,19 +2484,19 @@
         <v>585544</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>541213</v>
+        <v>538549</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>635391</v>
+        <v>630012</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1768031858229578</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1634175928676092</v>
+        <v>0.1626131868014174</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1918544080093248</v>
+        <v>0.1902301630047069</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1066</v>
@@ -2505,19 +2505,19 @@
         <v>1116589</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1058743</v>
+        <v>1059268</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1183139</v>
+        <v>1179334</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1707395936033326</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1618943026975877</v>
+        <v>0.1619744809610359</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1809158248787209</v>
+        <v>0.1803341135423106</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>689304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>647385</v>
+        <v>642685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>736100</v>
+        <v>740437</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2135472032190123</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2005604184669821</v>
+        <v>0.1991044821127702</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2280446937001183</v>
+        <v>0.2293881581456436</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>596</v>
@@ -2555,19 +2555,19 @@
         <v>611400</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>569539</v>
+        <v>564531</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>657693</v>
+        <v>656127</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1846103531244923</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.171970560081591</v>
+        <v>0.1704583964584196</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1985883498243025</v>
+        <v>0.1981153967051915</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1279</v>
@@ -2576,19 +2576,19 @@
         <v>1300704</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1230466</v>
+        <v>1232366</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1361360</v>
+        <v>1362132</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1988930204887017</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.188152715897133</v>
+        <v>0.1884432034575998</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2081680185870946</v>
+        <v>0.2082860185838284</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>932912</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>879161</v>
+        <v>883359</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>981782</v>
+        <v>982789</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2890170165719274</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2723651356539996</v>
+        <v>0.2736654152361458</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3041571344267254</v>
+        <v>0.3044689756782758</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>846</v>
@@ -2626,19 +2626,19 @@
         <v>857709</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>808287</v>
+        <v>808925</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>906701</v>
+        <v>913633</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2589826748063491</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2440596441012136</v>
+        <v>0.2442523856028023</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2737756448914706</v>
+        <v>0.2758686770372986</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1757</v>
@@ -2647,19 +2647,19 @@
         <v>1790621</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1720789</v>
+        <v>1726254</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1866129</v>
+        <v>1861926</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2738070427503215</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2631288615414198</v>
+        <v>0.2639644798596764</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2853530875955714</v>
+        <v>0.2847103956980348</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>257338</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>229326</v>
+        <v>228042</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>291746</v>
+        <v>285746</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07972345923082257</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07104546101087818</v>
+        <v>0.07064765189655398</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09038315479720022</v>
+        <v>0.08852448946470849</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>270</v>
@@ -2697,19 +2697,19 @@
         <v>274266</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>244704</v>
+        <v>242963</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>308546</v>
+        <v>309497</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08281389562340394</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07388769009687823</v>
+        <v>0.07336186315561821</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09316447718396521</v>
+        <v>0.09345157100300697</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>521</v>
@@ -2718,19 +2718,19 @@
         <v>531604</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>485422</v>
+        <v>485606</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>574509</v>
+        <v>575059</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08128851622442622</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07422677147524165</v>
+        <v>0.07425492512508297</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08784917169094654</v>
+        <v>0.08793336472761232</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>817279</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>768209</v>
+        <v>770741</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>869837</v>
+        <v>866327</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.253194043472425</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2379920416671328</v>
+        <v>0.2387762959329374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2694764395827524</v>
+        <v>0.2683890671267469</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>959</v>
@@ -2768,19 +2768,19 @@
         <v>982921</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>931591</v>
+        <v>927010</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1035432</v>
+        <v>1034693</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2967898906227968</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2812910857225224</v>
+        <v>0.2799078628181896</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3126454482002659</v>
+        <v>0.3124222975679533</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1773</v>
@@ -2789,19 +2789,19 @@
         <v>1800200</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1730086</v>
+        <v>1729894</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1875221</v>
+        <v>1867889</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2752718269332178</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2645505045389104</v>
+        <v>0.2645211522753286</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.286743331609254</v>
+        <v>0.2856221850244475</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>214936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190214</v>
+        <v>187476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>242370</v>
+        <v>243198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2062841709301802</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1825574406949552</v>
+        <v>0.1799295924527552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2326133708318716</v>
+        <v>0.2334081282564135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -3154,19 +3154,19 @@
         <v>231645</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204309</v>
+        <v>206597</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>258802</v>
+        <v>261155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2082186409348104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1836475422957016</v>
+        <v>0.1857040034658814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2326290742640355</v>
+        <v>0.2347445725458554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -3175,19 +3175,19 @@
         <v>446581</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>408262</v>
+        <v>410803</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>489186</v>
+        <v>488488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2072830867281095</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1894969982454682</v>
+        <v>0.1906763127132022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2270584146359221</v>
+        <v>0.2267344240527418</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>174517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150829</v>
+        <v>153081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>201034</v>
+        <v>199325</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1674922226793061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1447577868435706</v>
+        <v>0.1469186621775227</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1929415112172766</v>
+        <v>0.1913012753791447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -3225,19 +3225,19 @@
         <v>202540</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178850</v>
+        <v>177836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>230718</v>
+        <v>227970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1820569746527876</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1607630510509207</v>
+        <v>0.1598511129025161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2073857328244729</v>
+        <v>0.2049152018425455</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -3246,19 +3246,19 @@
         <v>377057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>337173</v>
+        <v>343892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>410385</v>
+        <v>415386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.175013125461158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1565005781329302</v>
+        <v>0.1596194783346798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1904824336628607</v>
+        <v>0.1928035681704096</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>174295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>151805</v>
+        <v>150904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>203037</v>
+        <v>202068</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.167279076268012</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1456946469081988</v>
+        <v>0.1448292033726674</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1948639889964052</v>
+        <v>0.1939339299996269</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -3296,19 +3296,19 @@
         <v>179825</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155743</v>
+        <v>154963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>205176</v>
+        <v>204052</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1616395002740296</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.139992385079391</v>
+        <v>0.139291774059467</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.184426399274479</v>
+        <v>0.1834165488156335</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>332</v>
@@ -3317,19 +3317,19 @@
         <v>354120</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>321314</v>
+        <v>321278</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>391032</v>
+        <v>389359</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1643669289922579</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1491396883600536</v>
+        <v>0.1491231083540505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1814996678500694</v>
+        <v>0.1807233718352078</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>55505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40729</v>
+        <v>41646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71931</v>
+        <v>71914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05327071656781694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03908966991862924</v>
+        <v>0.03996987036101021</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06903540810405748</v>
+        <v>0.06901940264758281</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -3367,19 +3367,19 @@
         <v>45782</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33937</v>
+        <v>33518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62127</v>
+        <v>59368</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0411522341918481</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03050487765326967</v>
+        <v>0.03012801664445769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0558440118494862</v>
+        <v>0.05336392055655044</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -3388,19 +3388,19 @@
         <v>101287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82703</v>
+        <v>82855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122897</v>
+        <v>124350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04701301111706892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03838693755255904</v>
+        <v>0.0384575471940202</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05704323378968486</v>
+        <v>0.05771757656406373</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>422689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391567</v>
+        <v>389204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457278</v>
+        <v>456838</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4056738135546848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3758051752523521</v>
+        <v>0.373537362426316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4388706127702447</v>
+        <v>0.43844867388174</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>413</v>
@@ -3438,19 +3438,19 @@
         <v>452716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>416715</v>
+        <v>419859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485693</v>
+        <v>487000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4069326499465243</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.374573033915957</v>
+        <v>0.377398788416511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.436574403792119</v>
+        <v>0.4377495868888093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>801</v>
@@ -3459,19 +3459,19 @@
         <v>875404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>827316</v>
+        <v>834348</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>923880</v>
+        <v>919964</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4063238477014056</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3840031400470336</v>
+        <v>0.3872671689031424</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4288240745764226</v>
+        <v>0.4270061972571444</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>237954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213364</v>
+        <v>212282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>267598</v>
+        <v>268501</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.244719436866893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2194303173449282</v>
+        <v>0.2183174565587047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2752064896551914</v>
+        <v>0.2761347082612925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -3584,19 +3584,19 @@
         <v>241855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215332</v>
+        <v>215723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>270232</v>
+        <v>271594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2214622189497752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.197175346520336</v>
+        <v>0.1975333748540049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2474457195063248</v>
+        <v>0.2486929832221165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>450</v>
@@ -3605,19 +3605,19 @@
         <v>479809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>439879</v>
+        <v>440621</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>515524</v>
+        <v>518109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2324164083161261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2130744982663441</v>
+        <v>0.213433800085493</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2497163796544274</v>
+        <v>0.2509686247635502</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>214609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188899</v>
+        <v>188290</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243293</v>
+        <v>242806</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2207109128441506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1942698002763086</v>
+        <v>0.1936433064657182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2502099570757616</v>
+        <v>0.2497097888927278</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>263</v>
@@ -3655,19 +3655,19 @@
         <v>283656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>258071</v>
+        <v>255134</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313179</v>
+        <v>316132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2597384665950385</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2363101413821282</v>
+        <v>0.2336215919009906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2867721718144521</v>
+        <v>0.2894756815646274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>465</v>
@@ -3676,19 +3676,19 @@
         <v>498265</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>459547</v>
+        <v>460883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>539662</v>
+        <v>540987</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.241356422112495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2226012873266046</v>
+        <v>0.2232486549556318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2614085766869979</v>
+        <v>0.2620505892982813</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>216607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>190787</v>
+        <v>189186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243776</v>
+        <v>244123</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2227659103298776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1962118625228528</v>
+        <v>0.1945650058025482</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2507074586849679</v>
+        <v>0.2510634752941681</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>197</v>
@@ -3726,19 +3726,19 @@
         <v>212974</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>185996</v>
+        <v>187095</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>239978</v>
+        <v>239430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1950161786845046</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1703127217359104</v>
+        <v>0.1713191898975793</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2197430380585436</v>
+        <v>0.2192410062962033</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>406</v>
@@ -3747,19 +3747,19 @@
         <v>429581</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>394499</v>
+        <v>389589</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>467750</v>
+        <v>465536</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2080863496908615</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.191092634676003</v>
+        <v>0.188714345030896</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2265752082960049</v>
+        <v>0.2255026475994035</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>34893</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23765</v>
+        <v>23693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48307</v>
+        <v>47731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03588483685762122</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02444081930305833</v>
+        <v>0.02436625257503181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04968032279732394</v>
+        <v>0.04908821738518185</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3797,19 +3797,19 @@
         <v>55094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41048</v>
+        <v>41543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69340</v>
+        <v>71194</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05044859281597251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03758729815748993</v>
+        <v>0.03804047689756868</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0634932330730175</v>
+        <v>0.06519134260074091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -3818,19 +3818,19 @@
         <v>89987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73083</v>
+        <v>71285</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110039</v>
+        <v>112225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04358903888215132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0354008523454809</v>
+        <v>0.03453020025450296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05330211293528613</v>
+        <v>0.05436091756535755</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>268291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239059</v>
+        <v>240593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294838</v>
+        <v>297566</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2759189031014577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2458555207191095</v>
+        <v>0.2474338862530517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3032204517758598</v>
+        <v>0.3060268489644181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -3868,19 +3868,19 @@
         <v>298504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268997</v>
+        <v>269243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332601</v>
+        <v>328400</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2733345429547092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2463153043911857</v>
+        <v>0.246540510895767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3045564090685941</v>
+        <v>0.3007096630512745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>531</v>
@@ -3889,19 +3889,19 @@
         <v>566795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>524098</v>
+        <v>530347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>607697</v>
+        <v>610909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.274551780998366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2538696195808156</v>
+        <v>0.2568963754015293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.29436443610232</v>
+        <v>0.2959204429668797</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>219981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>192792</v>
+        <v>195627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>246706</v>
+        <v>245959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2485337386080196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.217815503312937</v>
+        <v>0.2210183033772806</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2787272544608986</v>
+        <v>0.2778831912285138</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -4014,19 +4014,19 @@
         <v>222270</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>196314</v>
+        <v>196661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248181</v>
+        <v>249132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2543158025837252</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2246177464788485</v>
+        <v>0.225014838854815</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2839628876524067</v>
+        <v>0.2850506870213612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>413</v>
@@ -4035,19 +4035,19 @@
         <v>442251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>406348</v>
+        <v>404559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>479970</v>
+        <v>478095</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2514064886767917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2309970552204217</v>
+        <v>0.2299799338848666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2728487901293288</v>
+        <v>0.2717828709494112</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>216956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191301</v>
+        <v>192394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>243126</v>
+        <v>246216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2451162139996936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2161316921153534</v>
+        <v>0.2173657912453038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2746831717204603</v>
+        <v>0.278173716162656</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -4085,19 +4085,19 @@
         <v>210175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186771</v>
+        <v>183591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>238840</v>
+        <v>234638</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2404777637185806</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2136992053896404</v>
+        <v>0.2100605038323506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2732750178600946</v>
+        <v>0.2684670009522051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>405</v>
@@ -4106,19 +4106,19 @@
         <v>427131</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389825</v>
+        <v>389258</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>463474</v>
+        <v>464725</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2428116548630166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2216040934758723</v>
+        <v>0.2212814685236112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2634713297925835</v>
+        <v>0.2641823572369847</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>201800</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>179481</v>
+        <v>176760</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>230255</v>
+        <v>227947</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2279929721631092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2027771248447378</v>
+        <v>0.1997025777510269</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2601409369480677</v>
+        <v>0.257533895391448</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -4156,19 +4156,19 @@
         <v>185010</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>162359</v>
+        <v>162271</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211701</v>
+        <v>212153</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2116840166396153</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1857677057868058</v>
+        <v>0.1856661463940043</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2422229640339363</v>
+        <v>0.2427400937624037</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>361</v>
@@ -4177,19 +4177,19 @@
         <v>386810</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>353475</v>
+        <v>353565</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>422080</v>
+        <v>424883</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2198900605906026</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2009400872168718</v>
+        <v>0.2009912685139911</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2399403219841104</v>
+        <v>0.241533301810088</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>34923</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24585</v>
+        <v>24859</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48648</v>
+        <v>48479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03945558655607032</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02777616245048287</v>
+        <v>0.02808566394068749</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05496267656958399</v>
+        <v>0.05477140742376232</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -4227,19 +4227,19 @@
         <v>36997</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26052</v>
+        <v>25971</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50070</v>
+        <v>51618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04233137259629803</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02980853945295472</v>
+        <v>0.02971505221307245</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05728915778869222</v>
+        <v>0.0590600436648907</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -4248,19 +4248,19 @@
         <v>71920</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55898</v>
+        <v>57543</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89324</v>
+        <v>88903</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04088438682177992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0317761695938148</v>
+        <v>0.03271159126239143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0507778798718365</v>
+        <v>0.05053864718418751</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>211455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184786</v>
+        <v>186252</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238382</v>
+        <v>236941</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2389014886731072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2087706629377527</v>
+        <v>0.2104271535734701</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2693226561193727</v>
+        <v>0.2676948650439763</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -4298,19 +4298,19 @@
         <v>219539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>195078</v>
+        <v>194707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246837</v>
+        <v>246731</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2511910444617809</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2232035482395643</v>
+        <v>0.2227795285671351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2824247302048078</v>
+        <v>0.2823039725257977</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -4319,19 +4319,19 @@
         <v>430994</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>392152</v>
+        <v>395848</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>467087</v>
+        <v>465777</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2450074090478092</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2229265916642253</v>
+        <v>0.2250279698103153</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2655253793014894</v>
+        <v>0.2647807860588164</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>200253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>171148</v>
+        <v>178965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>222283</v>
+        <v>223566</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3996985012883518</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3416051929259745</v>
+        <v>0.357207552497826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4436690663932469</v>
+        <v>0.4462303503920988</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>165</v>
@@ -4444,19 +4444,19 @@
         <v>178477</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>158442</v>
+        <v>155785</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>201065</v>
+        <v>199912</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3959435817047748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3514956577896192</v>
+        <v>0.3456025322750906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4460527907216102</v>
+        <v>0.4434959041263215</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>345</v>
@@ -4465,19 +4465,19 @@
         <v>378730</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>348526</v>
+        <v>347368</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>413188</v>
+        <v>413287</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3979201550630515</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3661853115406221</v>
+        <v>0.3649687557026174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4341245600197279</v>
+        <v>0.4342279236000888</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>136377</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>114872</v>
+        <v>114762</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>159426</v>
+        <v>157315</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2722051354056801</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2292802906018168</v>
+        <v>0.2290618229015325</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3182088502747019</v>
+        <v>0.313994847845753</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>93</v>
@@ -4515,19 +4515,19 @@
         <v>103419</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>85544</v>
+        <v>86388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>123582</v>
+        <v>125019</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.229430516519119</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1897751467796858</v>
+        <v>0.19164710277047</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2741618351442733</v>
+        <v>0.2773499944014211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>218</v>
@@ -4536,19 +4536,19 @@
         <v>239796</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>212358</v>
+        <v>211657</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>268952</v>
+        <v>269640</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2519468900977703</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2231184273078838</v>
+        <v>0.2223817518194404</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2825799688384944</v>
+        <v>0.2833024196406864</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>55788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42140</v>
+        <v>42154</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71606</v>
+        <v>70563</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1113514555194051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08410927125970656</v>
+        <v>0.08413866048127905</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1429223968260387</v>
+        <v>0.1408411900518996</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -4586,19 +4586,19 @@
         <v>58292</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44390</v>
+        <v>43382</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74475</v>
+        <v>73348</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1293182030407388</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09847691387308852</v>
+        <v>0.09624109568730624</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.165220314757825</v>
+        <v>0.1627188003382702</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -4607,19 +4607,19 @@
         <v>114080</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>93042</v>
+        <v>94584</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>135757</v>
+        <v>134689</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1198605851889815</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09775640613969841</v>
+        <v>0.09937694114700189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1426356404810748</v>
+        <v>0.1415134413202483</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>16425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9275</v>
+        <v>9466</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26854</v>
+        <v>26087</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03278435647747949</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01851255643318342</v>
+        <v>0.01889380131077406</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05359914933254757</v>
+        <v>0.05206785740179924</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -4657,19 +4657,19 @@
         <v>12285</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6082</v>
+        <v>6159</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21734</v>
+        <v>22641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0272537495511253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0134921319219859</v>
+        <v>0.01366414911275253</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0482155007348128</v>
+        <v>0.05022803305672209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -4678,19 +4678,19 @@
         <v>28710</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18793</v>
+        <v>19282</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41444</v>
+        <v>40562</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03016503701345711</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01974521923672911</v>
+        <v>0.02025886693690113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04354388713139067</v>
+        <v>0.0426170082817762</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>92166</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76001</v>
+        <v>73799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115406</v>
+        <v>111016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1839605513090834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1516949616729734</v>
+        <v>0.1473007322136489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2303475544536046</v>
+        <v>0.2215836587234254</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -4728,19 +4728,19 @@
         <v>98291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>79224</v>
+        <v>80660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114922</v>
+        <v>118924</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2180539491842421</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1757555169648398</v>
+        <v>0.1789406741518976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2549484262840559</v>
+        <v>0.2638285562544949</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>174</v>
@@ -4749,19 +4749,19 @@
         <v>190457</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>163657</v>
+        <v>167575</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>218443</v>
+        <v>220539</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2001073326367397</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1719491846289093</v>
+        <v>0.1760660789327328</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2295118257704872</v>
+        <v>0.2317136639471693</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>873124</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>817835</v>
+        <v>819874</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>928458</v>
+        <v>926499</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2567693654397565</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.240510029854568</v>
+        <v>0.2411097671255702</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2730420721663225</v>
+        <v>0.2724659345876975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>804</v>
@@ -4874,19 +4874,19 @@
         <v>874247</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>824323</v>
+        <v>824256</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>924686</v>
+        <v>933164</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.247707896769344</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2335623686776027</v>
+        <v>0.2335433010717042</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2619989640276443</v>
+        <v>0.2644012435801459</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1621</v>
@@ -4895,19 +4895,19 @@
         <v>1747371</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1677451</v>
+        <v>1675358</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1826576</v>
+        <v>1824882</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2521543371770544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2420645970305066</v>
+        <v>0.2417624904593472</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.263584045543495</v>
+        <v>0.2633395124160154</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>742460</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>691257</v>
+        <v>688258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>793535</v>
+        <v>790628</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2183435118566631</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2032856799067954</v>
+        <v>0.2024037318611943</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2333638365019555</v>
+        <v>0.2325090654787851</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>749</v>
@@ -4945,19 +4945,19 @@
         <v>799791</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>749686</v>
+        <v>743361</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>855464</v>
+        <v>850621</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.226611457989541</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2124148847189655</v>
+        <v>0.2106226308144911</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2423859869681796</v>
+        <v>0.2410137618932334</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1448</v>
@@ -4966,19 +4966,19 @@
         <v>1542250</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1468128</v>
+        <v>1467507</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1609978</v>
+        <v>1610978</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2225543971408908</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2118581869017336</v>
+        <v>0.2117685699263845</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2323278503688748</v>
+        <v>0.2324722107893827</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>648490</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>601143</v>
+        <v>600712</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>698542</v>
+        <v>695575</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1907089248288789</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1767850254741977</v>
+        <v>0.1766582736119405</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2054280300187459</v>
+        <v>0.2045555798742628</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>592</v>
@@ -5016,19 +5016,19 @@
         <v>636101</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>592776</v>
+        <v>594338</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>687224</v>
+        <v>685445</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1802319744806216</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1679561220751281</v>
+        <v>0.1683987082014163</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1947169026498606</v>
+        <v>0.1942129907610143</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1206</v>
@@ -5037,19 +5037,19 @@
         <v>1284592</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1207677</v>
+        <v>1219556</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1344021</v>
+        <v>1346942</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.185372988269057</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1742737332319503</v>
+        <v>0.1759880607454486</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1939488773941756</v>
+        <v>0.194370487772183</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>141746</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>119396</v>
+        <v>119790</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>168146</v>
+        <v>165970</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0416847743832759</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03511208117671752</v>
+        <v>0.03522812072428748</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04944846256804049</v>
+        <v>0.04880855109265311</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>142</v>
@@ -5087,19 +5087,19 @@
         <v>150159</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>128006</v>
+        <v>129339</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>178665</v>
+        <v>178443</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04254569839637855</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03626889748675129</v>
+        <v>0.0366467244142307</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0506226026383159</v>
+        <v>0.0505597720024383</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>276</v>
@@ -5108,19 +5108,19 @@
         <v>291904</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>259941</v>
+        <v>260595</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>328996</v>
+        <v>325058</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04212324509889852</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03751081406319312</v>
+        <v>0.03760518604630256</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04747582483318356</v>
+        <v>0.04690755380333798</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>994600</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>942780</v>
+        <v>940545</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1055019</v>
+        <v>1050921</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2924934234914255</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2772541286361358</v>
+        <v>0.2765966844269536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3102613874100844</v>
+        <v>0.3090562100581795</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>986</v>
@@ -5158,19 +5158,19 @@
         <v>1069050</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1015902</v>
+        <v>1011841</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1126143</v>
+        <v>1130351</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3029029723641149</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2878442293973833</v>
+        <v>0.2866935000628857</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3190796913055121</v>
+        <v>0.3202719255864186</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1907</v>
@@ -5179,19 +5179,19 @@
         <v>2063650</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1982408</v>
+        <v>1984407</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2141408</v>
+        <v>2144959</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2977950323140993</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2860713708363406</v>
+        <v>0.286359828701209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.309015775341088</v>
+        <v>0.3095283269647207</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>166065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142749</v>
+        <v>143285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191662</v>
+        <v>192463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1474925100846894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1267840507685598</v>
+        <v>0.1272606934816159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1702269045926881</v>
+        <v>0.170938181844884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>225</v>
@@ -5544,19 +5544,19 @@
         <v>238361</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>211543</v>
+        <v>212446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267296</v>
+        <v>269693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1900092047789932</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1686307482351849</v>
+        <v>0.1693512546151159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2130744983824298</v>
+        <v>0.214985503642233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>379</v>
@@ -5565,19 +5565,19 @@
         <v>404426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>367407</v>
+        <v>370192</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>439791</v>
+        <v>450544</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1698989144879782</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1543473632670038</v>
+        <v>0.155517266546877</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1847557156994151</v>
+        <v>0.1892730768832689</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>305704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274268</v>
+        <v>274174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>337028</v>
+        <v>335058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2715152296444345</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2435952196221622</v>
+        <v>0.2435110729409508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2993360947938015</v>
+        <v>0.2975859630274368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>353</v>
@@ -5615,19 +5615,19 @@
         <v>368684</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>335712</v>
+        <v>335927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401632</v>
+        <v>403864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2938958191920432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2676122727464242</v>
+        <v>0.2677832605710541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3201599633087345</v>
+        <v>0.3219391973819143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>642</v>
@@ -5636,19 +5636,19 @@
         <v>674389</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>632315</v>
+        <v>631133</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719397</v>
+        <v>717737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2833098562915272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2656349202704212</v>
+        <v>0.2651384256615534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3022180120831843</v>
+        <v>0.3015203643961371</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>187067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>163470</v>
+        <v>163342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>212569</v>
+        <v>214528</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1661459124421915</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1451883799543168</v>
+        <v>0.1450740879928033</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1887959968073475</v>
+        <v>0.1905354767115076</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -5686,19 +5686,19 @@
         <v>199504</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>169872</v>
+        <v>172015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>227027</v>
+        <v>225078</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1590346162192299</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1354130708237853</v>
+        <v>0.137121801264561</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1809743606333192</v>
+        <v>0.1794201413987881</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>367</v>
@@ -5707,19 +5707,19 @@
         <v>386571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>348934</v>
+        <v>353336</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>423945</v>
+        <v>428966</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.16239824155317</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.146586755417288</v>
+        <v>0.1484361921369663</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1780989136823078</v>
+        <v>0.1802082049537854</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>74764</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58428</v>
+        <v>57716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91666</v>
+        <v>91227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06640254444684025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05189339495698177</v>
+        <v>0.05126150021888188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0814143433328355</v>
+        <v>0.08102404301074219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -5757,19 +5757,19 @@
         <v>73391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57420</v>
+        <v>57352</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91414</v>
+        <v>89838</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0585035013943862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04577228894505565</v>
+        <v>0.04571830710451345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07287035374264779</v>
+        <v>0.07161388277205642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -5778,19 +5778,19 @@
         <v>148155</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125659</v>
+        <v>126180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174727</v>
+        <v>174856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06223972900916734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05278911574179285</v>
+        <v>0.05300789545600227</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07340257153942559</v>
+        <v>0.07345686843894207</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>392319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>359639</v>
+        <v>359128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>425937</v>
+        <v>423220</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3484438033818443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3194178255284645</v>
+        <v>0.3189647689830948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3783015235719434</v>
+        <v>0.3758885688412711</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -5828,19 +5828,19 @@
         <v>374531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340294</v>
+        <v>342816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405181</v>
+        <v>409826</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2985568584153475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2712648629237847</v>
+        <v>0.2732749337374476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3229890449857611</v>
+        <v>0.3266923913560588</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>717</v>
@@ -5849,19 +5849,19 @@
         <v>766851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723042</v>
+        <v>723736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>816229</v>
+        <v>816576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3221532586581574</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3037490981118519</v>
+        <v>0.3040408200666049</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3428967622783929</v>
+        <v>0.3430427368421578</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>162549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141288</v>
+        <v>140521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185752</v>
+        <v>185028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.179258489736822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1558128223044389</v>
+        <v>0.1549669756039849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2048470691754137</v>
+        <v>0.204048624871808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -5974,19 +5974,19 @@
         <v>246751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220423</v>
+        <v>219755</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>276607</v>
+        <v>274221</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2459841563610067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2197387190034343</v>
+        <v>0.2190720891904437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2757479583245522</v>
+        <v>0.2733696000393283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>394</v>
@@ -5995,19 +5995,19 @@
         <v>409299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371798</v>
+        <v>371791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>444491</v>
+        <v>444999</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2143041096052368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1946690274612716</v>
+        <v>0.1946655552535028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2327301517466152</v>
+        <v>0.2329962450818493</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>342003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313062</v>
+        <v>312051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>368532</v>
+        <v>371324</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3771610458175081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3452445437047943</v>
+        <v>0.3441299799651176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4064169396349854</v>
+        <v>0.4094954451649562</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>344</v>
@@ -6045,19 +6045,19 @@
         <v>359687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328851</v>
+        <v>330559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>389291</v>
+        <v>392699</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3585692704888361</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3278298516410149</v>
+        <v>0.3295323790402054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3880815657369215</v>
+        <v>0.3914792218435598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>671</v>
@@ -6066,19 +6066,19 @@
         <v>701689</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>660338</v>
+        <v>662098</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>746789</v>
+        <v>746797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3673962832634319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3457449863436127</v>
+        <v>0.3466666193520762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3910097596870983</v>
+        <v>0.3910139249992092</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>156977</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134974</v>
+        <v>135486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>181188</v>
+        <v>182293</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1731137033705737</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1488497784993591</v>
+        <v>0.1494142492300156</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1998141394935672</v>
+        <v>0.2010325824391975</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -6116,19 +6116,19 @@
         <v>147611</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>126775</v>
+        <v>125493</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>171275</v>
+        <v>172539</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1471526265196917</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1263810637845835</v>
+        <v>0.1251030070355001</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1707433048585243</v>
+        <v>0.172002899739557</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>294</v>
@@ -6137,19 +6137,19 @@
         <v>304588</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>273434</v>
+        <v>271717</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>338703</v>
+        <v>335486</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1594784401095102</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1431668125693821</v>
+        <v>0.1422677876709117</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1773409607054734</v>
+        <v>0.1756563432095916</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>46307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34729</v>
+        <v>35055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61352</v>
+        <v>62712</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05106681705725685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03829947323760164</v>
+        <v>0.03865891597902757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06765890063148673</v>
+        <v>0.06915829432805849</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -6187,19 +6187,19 @@
         <v>45804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34491</v>
+        <v>33929</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61545</v>
+        <v>61397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04566148685043867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03438370040356001</v>
+        <v>0.03382381945587411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06135370072813204</v>
+        <v>0.06120637517716461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -6208,19 +6208,19 @@
         <v>92110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74612</v>
+        <v>75149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112701</v>
+        <v>112650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04822783234155002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03906571389053632</v>
+        <v>0.03934738527206386</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05900905166128587</v>
+        <v>0.05898211541285513</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>198948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173108</v>
+        <v>174953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>222629</v>
+        <v>227764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2193999440178394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1909031154254288</v>
+        <v>0.1929381238804518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2455146387542868</v>
+        <v>0.251178304686143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -6258,19 +6258,19 @@
         <v>203264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>176652</v>
+        <v>177164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230146</v>
+        <v>231604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2026324597800268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1761037006953763</v>
+        <v>0.1766135942760473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2294311268578738</v>
+        <v>0.2308846101863524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -6279,19 +6279,19 @@
         <v>402212</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>369573</v>
+        <v>370473</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>444926</v>
+        <v>440194</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2105933346802711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.193504311748554</v>
+        <v>0.1939750879481536</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2329577919726345</v>
+        <v>0.2304802403050981</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>222667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>197061</v>
+        <v>197403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>251722</v>
+        <v>251344</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2709571391486964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2397975139033806</v>
+        <v>0.2402140010716437</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3063123892477919</v>
+        <v>0.3058529854486264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -6404,19 +6404,19 @@
         <v>193958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170303</v>
+        <v>170666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218083</v>
+        <v>220457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2515473334760814</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2208693210054764</v>
+        <v>0.2213401934146302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2828358283935994</v>
+        <v>0.2859140830822863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>390</v>
@@ -6425,19 +6425,19 @@
         <v>416625</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>379370</v>
+        <v>382930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>452242</v>
+        <v>457294</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2615612792066593</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2381720135490701</v>
+        <v>0.2404073620895574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2839216877099209</v>
+        <v>0.2870934771598728</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>267266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>242147</v>
+        <v>242377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296883</v>
+        <v>299132</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3252283745387297</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2946609953427105</v>
+        <v>0.2949412186370293</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3612675597484185</v>
+        <v>0.3640043106642012</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>260</v>
@@ -6475,19 +6475,19 @@
         <v>270542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>244696</v>
+        <v>245313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294587</v>
+        <v>298634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3508706677944326</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3173508713433789</v>
+        <v>0.3181501404764858</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3820551960529814</v>
+        <v>0.3873036203178601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>519</v>
@@ -6496,19 +6496,19 @@
         <v>537808</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>499680</v>
+        <v>499004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>577788</v>
+        <v>577923</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3376412446151753</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.313703874709814</v>
+        <v>0.313279627487465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3627406613190777</v>
+        <v>0.3628255162667902</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>143225</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>121735</v>
+        <v>122122</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>166651</v>
+        <v>166038</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1742855043414764</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1481352091073855</v>
+        <v>0.1486062910119641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2027927799201242</v>
+        <v>0.2020463903813353</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>118</v>
@@ -6546,19 +6546,19 @@
         <v>120888</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99966</v>
+        <v>101879</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>141927</v>
+        <v>141522</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1567822096723722</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1296473881754544</v>
+        <v>0.1321282245762077</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1840671415196754</v>
+        <v>0.1835420087652008</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>254</v>
@@ -6567,19 +6567,19 @@
         <v>264113</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232982</v>
+        <v>234198</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>298252</v>
+        <v>296274</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1658125444361055</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1462684482403441</v>
+        <v>0.1470317783299466</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1872451642443496</v>
+        <v>0.1860036781619505</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>28797</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19628</v>
+        <v>18947</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42043</v>
+        <v>41178</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0350426345776085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0238849667798046</v>
+        <v>0.02305617576330584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05116068487098838</v>
+        <v>0.05010793592366664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -6617,19 +6617,19 @@
         <v>26989</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17475</v>
+        <v>17439</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39029</v>
+        <v>38793</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03500282641560822</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02266341989196959</v>
+        <v>0.02261708395984412</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05061703219052198</v>
+        <v>0.05031191899241728</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -6638,19 +6638,19 @@
         <v>55787</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41769</v>
+        <v>42931</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73049</v>
+        <v>73032</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03502336432209882</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02622292827359771</v>
+        <v>0.02695256911093096</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04586088818076359</v>
+        <v>0.04584993177293556</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>159825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139100</v>
+        <v>138572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>185679</v>
+        <v>184940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1944863473934891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1692670348854198</v>
+        <v>0.1686240845259193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2259471712568342</v>
+        <v>0.2250473872640387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -6688,19 +6688,19 @@
         <v>158682</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>137490</v>
+        <v>137318</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183556</v>
+        <v>184877</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2057969626415056</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1783135592667717</v>
+        <v>0.1780898825874007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2380567360750775</v>
+        <v>0.2397697598630789</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>298</v>
@@ -6709,19 +6709,19 @@
         <v>318507</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>288965</v>
+        <v>285173</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>352984</v>
+        <v>348700</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1999615674199611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1814150525693435</v>
+        <v>0.1790345913470019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2216068121924426</v>
+        <v>0.218917327046425</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>166594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>144340</v>
+        <v>144606</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189421</v>
+        <v>188858</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3327875461467594</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2883331255407118</v>
+        <v>0.2888647167509846</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.378387987864247</v>
+        <v>0.3772632263815043</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -6834,19 +6834,19 @@
         <v>195072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174293</v>
+        <v>172982</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>219270</v>
+        <v>214507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4000192142199461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.357409263113712</v>
+        <v>0.3547221594220283</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4496404038482688</v>
+        <v>0.4398728750986283</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>334</v>
@@ -6855,19 +6855,19 @@
         <v>361666</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>330180</v>
+        <v>330905</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>394731</v>
+        <v>393828</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.365963073724341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3341031475933182</v>
+        <v>0.3348367023842557</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3994213702106783</v>
+        <v>0.3985080653643852</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>141624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>121872</v>
+        <v>122196</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>163579</v>
+        <v>163522</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2829072651568839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.243452356944928</v>
+        <v>0.2440995126523451</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3267647439277846</v>
+        <v>0.3266516347210486</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>110</v>
@@ -6905,19 +6905,19 @@
         <v>115331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>97217</v>
+        <v>97063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>136051</v>
+        <v>136678</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2365013347479041</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1993562889014588</v>
+        <v>0.1990394650230725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2789904933640627</v>
+        <v>0.2802759220391364</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>242</v>
@@ -6926,19 +6926,19 @@
         <v>256955</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>227969</v>
+        <v>231945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>288398</v>
+        <v>287113</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.260008216714853</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2306773963051408</v>
+        <v>0.234701456970804</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2918245179355611</v>
+        <v>0.2905242205197339</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>68548</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53369</v>
+        <v>54267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86721</v>
+        <v>87111</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1369312959179296</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1066094203817181</v>
+        <v>0.1084044154159799</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1732329763813501</v>
+        <v>0.1740128791814443</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -6976,19 +6976,19 @@
         <v>61482</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47624</v>
+        <v>49515</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79328</v>
+        <v>78336</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1260766004340238</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09765920556257227</v>
+        <v>0.1015375958025857</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1626720401526461</v>
+        <v>0.1606370661114009</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>123</v>
@@ -6997,19 +6997,19 @@
         <v>130030</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110958</v>
+        <v>110170</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155089</v>
+        <v>152792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1315750365881661</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1122761782421472</v>
+        <v>0.1114789660636849</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1569315744546928</v>
+        <v>0.1546073582419301</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>17255</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10597</v>
+        <v>10337</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26626</v>
+        <v>27061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03446906330906065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02116920842630015</v>
+        <v>0.0206495622637811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05318861038510599</v>
+        <v>0.0540566226199733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -7047,19 +7047,19 @@
         <v>25783</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16746</v>
+        <v>16517</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38149</v>
+        <v>37513</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05287222362003231</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0343397188398853</v>
+        <v>0.03387078651348856</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0782299661025664</v>
+        <v>0.07692515394777914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -7068,19 +7068,19 @@
         <v>43039</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30194</v>
+        <v>30859</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59687</v>
+        <v>56463</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04355011945282141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03055268833552138</v>
+        <v>0.03122587973183958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06039653016416458</v>
+        <v>0.0571334347702301</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>106580</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88969</v>
+        <v>88570</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127826</v>
+        <v>126950</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2129048294693665</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1777252535002817</v>
+        <v>0.1769274017419484</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2553446421909485</v>
+        <v>0.2535953590299461</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>80</v>
@@ -7118,19 +7118,19 @@
         <v>89987</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73081</v>
+        <v>72400</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109711</v>
+        <v>109232</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1845306269780937</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1498626877554506</v>
+        <v>0.1484661766047797</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2249768815614462</v>
+        <v>0.2239939710993966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -7139,19 +7139,19 @@
         <v>196568</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>171540</v>
+        <v>170931</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>223187</v>
+        <v>223695</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1989035535198184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.173577903877227</v>
+        <v>0.172961794285285</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2258392995084115</v>
+        <v>0.2263533609292566</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>717874</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>670705</v>
+        <v>668434</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>770166</v>
+        <v>767015</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2139661281701893</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.199907069925293</v>
+        <v>0.1992300753067313</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2295519660141504</v>
+        <v>0.2286127597654344</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>823</v>
@@ -7264,19 +7264,19 @@
         <v>874141</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>822237</v>
+        <v>820453</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>930267</v>
+        <v>928312</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2485967470025728</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2338355409301196</v>
+        <v>0.2333284309345464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2645581634064107</v>
+        <v>0.2640022628902068</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1497</v>
@@ -7285,19 +7285,19 @@
         <v>1592016</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1519402</v>
+        <v>1523441</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1668841</v>
+        <v>1663998</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2316876971873623</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2211201319227883</v>
+        <v>0.2217078789869681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2428681368069276</v>
+        <v>0.2421633037539315</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>1056598</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1002042</v>
+        <v>1006711</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1109168</v>
+        <v>1114688</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.314924309583591</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2986637631547875</v>
+        <v>0.3000552668493824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3305932809886271</v>
+        <v>0.3322385164998607</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1067</v>
@@ -7335,19 +7335,19 @@
         <v>1114244</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1060101</v>
+        <v>1064716</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1171073</v>
+        <v>1175115</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3168793726384494</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3014817643455699</v>
+        <v>0.3027942614951842</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3330409848223116</v>
+        <v>0.3341904678132447</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2074</v>
@@ -7356,19 +7356,19 @@
         <v>2170841</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2092132</v>
+        <v>2088228</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2250239</v>
+        <v>2248896</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3159247763967107</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3044700457137452</v>
+        <v>0.3039019604930262</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3274795750691847</v>
+        <v>0.3272841766415485</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>555816</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>513728</v>
+        <v>511584</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>600589</v>
+        <v>600325</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1656637724826655</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1531193703742388</v>
+        <v>0.1524803100284749</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1790086696205979</v>
+        <v>0.1789298884852409</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>511</v>
@@ -7406,19 +7406,19 @@
         <v>529486</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>490603</v>
+        <v>486468</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>574342</v>
+        <v>573472</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1505803022223811</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1395224734900772</v>
+        <v>0.1383465397971702</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1633370142136626</v>
+        <v>0.163089500978097</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1038</v>
@@ -7427,19 +7427,19 @@
         <v>1085302</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1026850</v>
+        <v>1025442</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1145668</v>
+        <v>1148434</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1579450897605956</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1494385612286109</v>
+        <v>0.1492336425321762</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1667302068401331</v>
+        <v>0.1671328257059204</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>167123</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>143446</v>
+        <v>143584</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>195497</v>
+        <v>195645</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04981187815178585</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04275489975786936</v>
+        <v>0.04279607556305333</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05826883940930028</v>
+        <v>0.05831301819572879</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>163</v>
@@ -7477,19 +7477,19 @@
         <v>171967</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>146503</v>
+        <v>146757</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>199264</v>
+        <v>199010</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04890576324238456</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04166380285452222</v>
+        <v>0.04173602430947796</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05666859480832497</v>
+        <v>0.0565964539213128</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>324</v>
@@ -7498,19 +7498,19 @@
         <v>339091</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>305882</v>
+        <v>302510</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>378677</v>
+        <v>376072</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04934819085869513</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04451533271644465</v>
+        <v>0.04402458538120629</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05510932191670972</v>
+        <v>0.05473010629965259</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>857673</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>809021</v>
+        <v>807222</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>907553</v>
+        <v>907660</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2556339116117683</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2411330056189419</v>
+        <v>0.2405967551844407</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2705007227981265</v>
+        <v>0.2705328456645138</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>749</v>
@@ -7548,19 +7548,19 @@
         <v>826464</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>775084</v>
+        <v>771288</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>876124</v>
+        <v>880415</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2350378148942121</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2204258824583475</v>
+        <v>0.2193463679718869</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2491604727667849</v>
+        <v>0.2503807496544803</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1573</v>
@@ -7569,19 +7569,19 @@
         <v>1684137</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1611187</v>
+        <v>1615268</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1759001</v>
+        <v>1759711</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2450942457966362</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.234477717315463</v>
+        <v>0.235071552284625</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2559891753818541</v>
+        <v>0.2560924914767116</v>
       </c>
     </row>
     <row r="33">
